--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N2">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q2">
-        <v>1745.910936063406</v>
+        <v>1847.053334803778</v>
       </c>
       <c r="R2">
-        <v>1745.910936063406</v>
+        <v>16623.480013234</v>
       </c>
       <c r="S2">
-        <v>0.004776460546174781</v>
+        <v>0.004077866437869162</v>
       </c>
       <c r="T2">
-        <v>0.004776460546174781</v>
+        <v>0.004077866437869162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N3">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q3">
-        <v>2115.751455435105</v>
+        <v>2226.113584585456</v>
       </c>
       <c r="R3">
-        <v>2115.751455435105</v>
+        <v>20035.0222612691</v>
       </c>
       <c r="S3">
-        <v>0.005788269689852403</v>
+        <v>0.004914743771830511</v>
       </c>
       <c r="T3">
-        <v>0.005788269689852403</v>
+        <v>0.004914743771830512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N4">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q4">
-        <v>2036.121301944259</v>
+        <v>2140.367809911067</v>
       </c>
       <c r="R4">
-        <v>2036.121301944259</v>
+        <v>19263.3102891996</v>
       </c>
       <c r="S4">
-        <v>0.005570417634184283</v>
+        <v>0.004725436939079562</v>
       </c>
       <c r="T4">
-        <v>0.005570417634184283</v>
+        <v>0.004725436939079562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N5">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q5">
-        <v>2223.757220015468</v>
+        <v>2326.370129712901</v>
       </c>
       <c r="R5">
-        <v>2223.757220015468</v>
+        <v>20937.3311674161</v>
       </c>
       <c r="S5">
-        <v>0.006083751700200959</v>
+        <v>0.005136087028599734</v>
       </c>
       <c r="T5">
-        <v>0.006083751700200959</v>
+        <v>0.005136087028599734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N6">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q6">
-        <v>565.8392317506089</v>
+        <v>640.3699350008555</v>
       </c>
       <c r="R6">
-        <v>565.8392317506089</v>
+        <v>5763.3294150077</v>
       </c>
       <c r="S6">
-        <v>0.001548022129942417</v>
+        <v>0.001413788663573086</v>
       </c>
       <c r="T6">
-        <v>0.001548022129942417</v>
+        <v>0.001413788663573086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N7">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q7">
-        <v>9821.693094038512</v>
+        <v>10048.63148204938</v>
       </c>
       <c r="R7">
-        <v>9821.693094038512</v>
+        <v>90437.68333844442</v>
       </c>
       <c r="S7">
-        <v>0.02687017338128899</v>
+        <v>0.02218505350930639</v>
       </c>
       <c r="T7">
-        <v>0.02687017338128899</v>
+        <v>0.02218505350930639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N8">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q8">
-        <v>11902.24600196572</v>
+        <v>12110.85496405529</v>
       </c>
       <c r="R8">
-        <v>11902.24600196572</v>
+        <v>108997.6946764976</v>
       </c>
       <c r="S8">
-        <v>0.03256214693713973</v>
+        <v>0.02673796585146729</v>
       </c>
       <c r="T8">
-        <v>0.03256214693713973</v>
+        <v>0.02673796585146729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N9">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q9">
-        <v>11454.28332960758</v>
+        <v>11644.36724840017</v>
       </c>
       <c r="R9">
-        <v>11454.28332960758</v>
+        <v>104799.3052356015</v>
       </c>
       <c r="S9">
-        <v>0.03133661132333454</v>
+        <v>0.02570806889965548</v>
       </c>
       <c r="T9">
-        <v>0.03133661132333454</v>
+        <v>0.02570806889965548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N10">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q10">
-        <v>12509.83683044586</v>
+        <v>12656.28646658208</v>
       </c>
       <c r="R10">
-        <v>12509.83683044586</v>
+        <v>113906.5781992387</v>
       </c>
       <c r="S10">
-        <v>0.03422439302341296</v>
+        <v>0.02794215242063685</v>
       </c>
       <c r="T10">
-        <v>0.03422439302341296</v>
+        <v>0.02794215242063685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N11">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O11">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P11">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q11">
-        <v>3183.151648818804</v>
+        <v>3483.841731993689</v>
       </c>
       <c r="R11">
-        <v>3183.151648818804</v>
+        <v>31354.5755879432</v>
       </c>
       <c r="S11">
-        <v>0.008708461553804059</v>
+        <v>0.007691516539371768</v>
       </c>
       <c r="T11">
-        <v>0.008708461553804059</v>
+        <v>0.007691516539371768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N12">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O12">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P12">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q12">
-        <v>34495.27590231779</v>
+        <v>35652.10132160112</v>
       </c>
       <c r="R12">
-        <v>34495.27590231779</v>
+        <v>320868.9118944101</v>
       </c>
       <c r="S12">
-        <v>0.09437212458748863</v>
+        <v>0.07871159141937446</v>
       </c>
       <c r="T12">
-        <v>0.09437212458748863</v>
+        <v>0.07871159141937446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N13">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O13">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P13">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q13">
-        <v>41802.4932935719</v>
+        <v>42968.77928512268</v>
       </c>
       <c r="R13">
-        <v>41802.4932935719</v>
+        <v>386719.0135661041</v>
       </c>
       <c r="S13">
-        <v>0.1143631990751393</v>
+        <v>0.09486512361140026</v>
       </c>
       <c r="T13">
-        <v>0.1143631990751393</v>
+        <v>0.09486512361140027</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N14">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O14">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P14">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q14">
-        <v>40229.18044119691</v>
+        <v>41313.70144357499</v>
       </c>
       <c r="R14">
-        <v>40229.18044119691</v>
+        <v>371823.3129921749</v>
       </c>
       <c r="S14">
-        <v>0.1100589321100082</v>
+        <v>0.09121109464811358</v>
       </c>
       <c r="T14">
-        <v>0.1100589321100082</v>
+        <v>0.09121109464811358</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N15">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O15">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P15">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q15">
-        <v>43936.44444267284</v>
+        <v>44903.94620081819</v>
       </c>
       <c r="R15">
-        <v>43936.44444267284</v>
+        <v>404135.5158073637</v>
       </c>
       <c r="S15">
-        <v>0.1202012594598958</v>
+        <v>0.099137524450344</v>
       </c>
       <c r="T15">
-        <v>0.1202012594598958</v>
+        <v>0.099137524450344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N16">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O16">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P16">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q16">
-        <v>11179.7114116272</v>
+        <v>12360.51681657749</v>
       </c>
       <c r="R16">
-        <v>11179.7114116272</v>
+        <v>111244.6513491974</v>
       </c>
       <c r="S16">
-        <v>0.0305854378778678</v>
+        <v>0.02728916146127067</v>
       </c>
       <c r="T16">
-        <v>0.0305854378778678</v>
+        <v>0.02728916146127067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N17">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O17">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P17">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q17">
-        <v>25453.83450456208</v>
+        <v>41018.44320448118</v>
       </c>
       <c r="R17">
-        <v>25453.83450456208</v>
+        <v>369165.9888403307</v>
       </c>
       <c r="S17">
-        <v>0.06963656263820307</v>
+        <v>0.09055923276572085</v>
       </c>
       <c r="T17">
-        <v>0.06963656263820307</v>
+        <v>0.09055923276572085</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N18">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O18">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P18">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q18">
-        <v>30845.78158428794</v>
+        <v>49436.42498863903</v>
       </c>
       <c r="R18">
-        <v>30845.78158428794</v>
+        <v>444927.8248977513</v>
       </c>
       <c r="S18">
-        <v>0.08438784345178378</v>
+        <v>0.1091441890013555</v>
       </c>
       <c r="T18">
-        <v>0.08438784345178378</v>
+        <v>0.1091441890013555</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N19">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O19">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P19">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q19">
-        <v>29684.84450172461</v>
+        <v>47532.22540640049</v>
       </c>
       <c r="R19">
-        <v>29684.84450172461</v>
+        <v>427790.0286576044</v>
       </c>
       <c r="S19">
-        <v>0.0812117535053184</v>
+        <v>0.1049401568702314</v>
       </c>
       <c r="T19">
-        <v>0.0812117535053184</v>
+        <v>0.1049401568702314</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N20">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O20">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P20">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q20">
-        <v>32420.40993466985</v>
+        <v>51662.87255498637</v>
       </c>
       <c r="R20">
-        <v>32420.40993466985</v>
+        <v>464965.8529948773</v>
       </c>
       <c r="S20">
-        <v>0.08869570935440868</v>
+        <v>0.1140596701276478</v>
       </c>
       <c r="T20">
-        <v>0.08869570935440868</v>
+        <v>0.1140596701276478</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N21">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O21">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P21">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q21">
-        <v>8249.434643924751</v>
+        <v>14221.01750596194</v>
       </c>
       <c r="R21">
-        <v>8249.434643924751</v>
+        <v>127989.1575536575</v>
       </c>
       <c r="S21">
-        <v>0.02256879104829835</v>
+        <v>0.03139671654693867</v>
       </c>
       <c r="T21">
-        <v>0.02256879104829835</v>
+        <v>0.03139671654693867</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N22">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O22">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P22">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q22">
-        <v>1942.985480207688</v>
+        <v>2565.622169334025</v>
       </c>
       <c r="R22">
-        <v>1942.985480207688</v>
+        <v>23090.59952400622</v>
       </c>
       <c r="S22">
-        <v>0.005315616791385654</v>
+        <v>0.005664300179881786</v>
       </c>
       <c r="T22">
-        <v>0.005315616791385654</v>
+        <v>0.005664300179881786</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N23">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O23">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P23">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q23">
-        <v>2354.572775005173</v>
+        <v>3092.150213775406</v>
       </c>
       <c r="R23">
-        <v>2354.572775005173</v>
+        <v>27829.35192397865</v>
       </c>
       <c r="S23">
-        <v>0.006441636701278466</v>
+        <v>0.00682675228701192</v>
       </c>
       <c r="T23">
-        <v>0.006441636701278466</v>
+        <v>0.00682675228701192</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N24">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O24">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P24">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q24">
-        <v>2265.954146858953</v>
+        <v>2973.046311204719</v>
       </c>
       <c r="R24">
-        <v>2265.954146858953</v>
+        <v>26757.41680084247</v>
       </c>
       <c r="S24">
-        <v>0.00619919398999621</v>
+        <v>0.006563798425442005</v>
       </c>
       <c r="T24">
-        <v>0.00619919398999621</v>
+        <v>0.006563798425442004</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N25">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O25">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P25">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q25">
-        <v>2474.769990122883</v>
+        <v>3231.410087842408</v>
       </c>
       <c r="R25">
-        <v>2474.769990122883</v>
+        <v>29082.69079058167</v>
       </c>
       <c r="S25">
-        <v>0.006770472063902584</v>
+        <v>0.007134205870457057</v>
       </c>
       <c r="T25">
-        <v>0.006770472063902584</v>
+        <v>0.007134205870457056</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N26">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O26">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P26">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q26">
-        <v>629.7099059945283</v>
+        <v>889.496405358388</v>
       </c>
       <c r="R26">
-        <v>629.7099059945283</v>
+        <v>8005.467648225491</v>
       </c>
       <c r="S26">
-        <v>0.001722759425689892</v>
+        <v>0.001963802273420316</v>
       </c>
       <c r="T26">
-        <v>0.001722759425689892</v>
+        <v>0.001963802273420315</v>
       </c>
     </row>
   </sheetData>
